--- a/documentation/Testing/Testing report.xlsx
+++ b/documentation/Testing/Testing report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eric.diep\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs02.opaltelecom.com\IRLOfflineFiles$\eric.diep\Documents\GitHub\Team-Infinite\documentation\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>Result</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Alert "Exchange 2 location is out of range"</t>
+  </si>
+  <si>
+    <t>P/F</t>
   </si>
 </sst>
 </file>
@@ -662,7 +665,38 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -938,17 +972,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="65" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.28515625" bestFit="1" customWidth="1"/>
@@ -956,16 +990,17 @@
     <col min="10" max="10" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="19.5703125" customWidth="1"/>
-    <col min="14" max="14" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="64.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -993,8 +1028,11 @@
       <c r="O3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="18"/>
       <c r="C4" s="17"/>
@@ -1030,8 +1068,9 @@
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1.1000000000000001</v>
       </c>
@@ -1074,9 +1113,15 @@
       <c r="N5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="2" t="str">
+        <f>IF(O5=N5,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="18"/>
       <c r="C6" s="40"/>
@@ -1114,8 +1159,12 @@
         <v>27</v>
       </c>
       <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" s="2" t="str">
+        <f t="shared" ref="P6:P33" si="0">IF(O6=N6,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="18"/>
       <c r="C7" s="40"/>
@@ -1153,8 +1202,12 @@
         <v>33</v>
       </c>
       <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
@@ -1192,8 +1245,12 @@
         <v>32</v>
       </c>
       <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="P8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1.2</v>
       </c>
@@ -1237,8 +1294,12 @@
         <v>14</v>
       </c>
       <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -1276,8 +1337,12 @@
         <v>30</v>
       </c>
       <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -1315,8 +1380,12 @@
         <v>31</v>
       </c>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -1354,8 +1423,12 @@
         <v>30</v>
       </c>
       <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -1393,8 +1466,12 @@
         <v>14</v>
       </c>
       <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -1432,8 +1509,12 @@
         <v>30</v>
       </c>
       <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -1471,8 +1552,12 @@
         <v>31</v>
       </c>
       <c r="O15" s="8"/>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="P15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1.3</v>
       </c>
@@ -1516,8 +1601,12 @@
         <v>14</v>
       </c>
       <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -1555,8 +1644,12 @@
         <v>34</v>
       </c>
       <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -1594,8 +1687,12 @@
         <v>34</v>
       </c>
       <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -1633,8 +1730,12 @@
         <v>34</v>
       </c>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -1672,8 +1773,12 @@
         <v>14</v>
       </c>
       <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -1711,8 +1816,12 @@
         <v>34</v>
       </c>
       <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -1750,8 +1859,12 @@
         <v>34</v>
       </c>
       <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -1789,8 +1902,12 @@
         <v>34</v>
       </c>
       <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="17" t="s">
         <v>29</v>
@@ -1830,8 +1947,12 @@
         <v>15</v>
       </c>
       <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -1869,8 +1990,12 @@
         <v>35</v>
       </c>
       <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -1908,8 +2033,12 @@
         <v>35</v>
       </c>
       <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -1947,8 +2076,12 @@
         <v>35</v>
       </c>
       <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -1986,8 +2119,12 @@
         <v>15</v>
       </c>
       <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -2025,8 +2162,12 @@
         <v>35</v>
       </c>
       <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -2064,8 +2205,12 @@
         <v>35</v>
       </c>
       <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -2103,8 +2248,12 @@
         <v>35</v>
       </c>
       <c r="O31" s="8"/>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="P31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>1.4</v>
       </c>
@@ -2147,8 +2296,12 @@
       <c r="N32" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17" t="s">
@@ -2187,8 +2340,20 @@
       <c r="N33" s="10" t="s">
         <v>15</v>
       </c>
+      <c r="P33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="P5:P33">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",P5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/documentation/Testing/Testing report.xlsx
+++ b/documentation/Testing/Testing report.xlsx
@@ -191,7 +191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -232,6 +232,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -240,7 +260,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -248,7 +270,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -257,7 +281,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -268,7 +294,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -279,6 +307,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -286,123 +325,21 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,6 +544,76 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -616,48 +623,84 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="3" applyBorder="1"/>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyBorder="1"/>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="3" applyBorder="1"/>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyBorder="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
@@ -665,7 +708,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -683,16 +726,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -974,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="65" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,7 +1024,7 @@
     <col min="11" max="11" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="19.5703125" customWidth="1"/>
     <col min="14" max="14" width="64.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1001,1357 +1034,1368 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="10" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="O3" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="42" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="24" t="s">
+      <c r="I4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="44"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="32">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="38">
-        <v>20</v>
-      </c>
-      <c r="E5" s="38">
-        <v>20</v>
-      </c>
-      <c r="F5" s="38">
-        <v>0</v>
-      </c>
-      <c r="G5" s="38">
-        <v>0</v>
-      </c>
-      <c r="H5" s="38">
-        <v>10</v>
-      </c>
-      <c r="I5" s="38">
+      <c r="D5" s="26">
+        <v>20</v>
+      </c>
+      <c r="E5" s="26">
+        <v>20</v>
+      </c>
+      <c r="F5" s="26">
+        <v>0</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0</v>
+      </c>
+      <c r="H5" s="26">
+        <v>10</v>
+      </c>
+      <c r="I5" s="26">
         <v>15</v>
       </c>
-      <c r="J5" s="38">
-        <v>0</v>
-      </c>
-      <c r="K5" s="38">
-        <v>1</v>
-      </c>
-      <c r="L5" s="38">
+      <c r="J5" s="26">
+        <v>0</v>
+      </c>
+      <c r="K5" s="26">
+        <v>1</v>
+      </c>
+      <c r="L5" s="26">
         <v>5</v>
       </c>
-      <c r="M5" s="38">
+      <c r="M5" s="26">
         <v>5</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="N5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="2" t="str">
+      <c r="P5" s="1" t="str">
         <f>IF(O5=N5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="9">
-        <v>20</v>
-      </c>
-      <c r="E6" s="9">
-        <v>20</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>10</v>
-      </c>
-      <c r="I6" s="9">
+      <c r="A6" s="33"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="28">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>10</v>
+      </c>
+      <c r="I6" s="2">
         <v>15</v>
       </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
         <v>5</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="2">
         <v>5</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="O6" s="3"/>
-      <c r="P6" s="2" t="str">
+      <c r="P6" s="1" t="str">
         <f t="shared" ref="P6:P33" si="0">IF(O6=N6,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="9">
-        <v>20</v>
-      </c>
-      <c r="E7" s="9">
-        <v>20</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>10</v>
-      </c>
-      <c r="I7" s="9">
+      <c r="A7" s="33"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="28">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>10</v>
+      </c>
+      <c r="I7" s="2">
         <v>15</v>
       </c>
-      <c r="J7" s="9">
-        <v>10</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9">
+      <c r="J7" s="2">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
         <v>5</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="2">
         <v>5</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O7" s="3"/>
-      <c r="P7" s="2" t="str">
+      <c r="P7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="30">
-        <v>20</v>
-      </c>
-      <c r="E8" s="31">
-        <v>20</v>
-      </c>
-      <c r="F8" s="31">
-        <v>10</v>
-      </c>
-      <c r="G8" s="31">
-        <v>0</v>
-      </c>
-      <c r="H8" s="31">
-        <v>10</v>
-      </c>
-      <c r="I8" s="31">
+      <c r="A8" s="34"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="18">
+        <v>20</v>
+      </c>
+      <c r="E8" s="19">
+        <v>20</v>
+      </c>
+      <c r="F8" s="19">
+        <v>10</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19">
+        <v>10</v>
+      </c>
+      <c r="I8" s="19">
         <v>15</v>
       </c>
-      <c r="J8" s="31">
-        <v>0</v>
-      </c>
-      <c r="K8" s="31">
-        <v>0</v>
-      </c>
-      <c r="L8" s="31">
+      <c r="J8" s="19">
+        <v>0</v>
+      </c>
+      <c r="K8" s="19">
+        <v>0</v>
+      </c>
+      <c r="L8" s="19">
         <v>5</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="19">
         <v>5</v>
       </c>
-      <c r="N8" s="32" t="s">
+      <c r="N8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="8"/>
-      <c r="P8" s="2" t="str">
+      <c r="O8" s="3"/>
+      <c r="P8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="33">
         <v>1.2</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="21">
         <v>100000</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="10">
         <v>100000</v>
       </c>
-      <c r="F9" s="19">
-        <v>0</v>
-      </c>
-      <c r="G9" s="19">
-        <v>0</v>
-      </c>
-      <c r="H9" s="19">
-        <v>10</v>
-      </c>
-      <c r="I9" s="19">
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>10</v>
+      </c>
+      <c r="I9" s="10">
         <v>15</v>
       </c>
-      <c r="J9" s="19">
-        <v>0</v>
-      </c>
-      <c r="K9" s="19">
-        <v>1</v>
-      </c>
-      <c r="L9" s="19">
+      <c r="J9" s="10">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10">
+        <v>1</v>
+      </c>
+      <c r="L9" s="10">
         <v>5</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="10">
         <v>5</v>
       </c>
-      <c r="N9" s="26" t="s">
+      <c r="N9" s="14" t="s">
         <v>14</v>
       </c>
       <c r="O9" s="3"/>
-      <c r="P9" s="2" t="str">
+      <c r="P9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="34">
+      <c r="A10" s="33"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="22">
         <v>100001</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="23">
         <v>100000</v>
       </c>
-      <c r="F10" s="35">
-        <v>0</v>
-      </c>
-      <c r="G10" s="35">
-        <v>0</v>
-      </c>
-      <c r="H10" s="35">
-        <v>10</v>
-      </c>
-      <c r="I10" s="35">
+      <c r="F10" s="23">
+        <v>0</v>
+      </c>
+      <c r="G10" s="23">
+        <v>0</v>
+      </c>
+      <c r="H10" s="23">
+        <v>10</v>
+      </c>
+      <c r="I10" s="23">
         <v>15</v>
       </c>
-      <c r="J10" s="35">
-        <v>0</v>
-      </c>
-      <c r="K10" s="35">
-        <v>1</v>
-      </c>
-      <c r="L10" s="35">
+      <c r="J10" s="23">
+        <v>0</v>
+      </c>
+      <c r="K10" s="23">
+        <v>1</v>
+      </c>
+      <c r="L10" s="23">
         <v>5</v>
       </c>
-      <c r="M10" s="35">
+      <c r="M10" s="23">
         <v>5</v>
       </c>
-      <c r="N10" s="36" t="s">
+      <c r="N10" s="24" t="s">
         <v>30</v>
       </c>
       <c r="O10" s="3"/>
-      <c r="P10" s="2" t="str">
+      <c r="P10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="34">
+      <c r="A11" s="33"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="22">
         <v>100000</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="23">
         <v>100001</v>
       </c>
-      <c r="F11" s="35">
-        <v>0</v>
-      </c>
-      <c r="G11" s="35">
-        <v>0</v>
-      </c>
-      <c r="H11" s="35">
-        <v>10</v>
-      </c>
-      <c r="I11" s="35">
+      <c r="F11" s="23">
+        <v>0</v>
+      </c>
+      <c r="G11" s="23">
+        <v>0</v>
+      </c>
+      <c r="H11" s="23">
+        <v>10</v>
+      </c>
+      <c r="I11" s="23">
         <v>15</v>
       </c>
-      <c r="J11" s="35">
-        <v>0</v>
-      </c>
-      <c r="K11" s="35">
-        <v>1</v>
-      </c>
-      <c r="L11" s="35">
+      <c r="J11" s="23">
+        <v>0</v>
+      </c>
+      <c r="K11" s="23">
+        <v>1</v>
+      </c>
+      <c r="L11" s="23">
         <v>5</v>
       </c>
-      <c r="M11" s="35">
+      <c r="M11" s="23">
         <v>5</v>
       </c>
-      <c r="N11" s="36" t="s">
+      <c r="N11" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O11" s="3"/>
-      <c r="P11" s="2" t="str">
+      <c r="P11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="34">
+      <c r="A12" s="33"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="22">
         <v>100001</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="23">
         <v>100001</v>
       </c>
-      <c r="F12" s="35">
-        <v>0</v>
-      </c>
-      <c r="G12" s="35">
-        <v>0</v>
-      </c>
-      <c r="H12" s="35">
-        <v>10</v>
-      </c>
-      <c r="I12" s="35">
+      <c r="F12" s="23">
+        <v>0</v>
+      </c>
+      <c r="G12" s="23">
+        <v>0</v>
+      </c>
+      <c r="H12" s="23">
+        <v>10</v>
+      </c>
+      <c r="I12" s="23">
         <v>15</v>
       </c>
-      <c r="J12" s="35">
-        <v>0</v>
-      </c>
-      <c r="K12" s="35">
-        <v>1</v>
-      </c>
-      <c r="L12" s="35">
+      <c r="J12" s="23">
+        <v>0</v>
+      </c>
+      <c r="K12" s="23">
+        <v>1</v>
+      </c>
+      <c r="L12" s="23">
         <v>5</v>
       </c>
-      <c r="M12" s="35">
+      <c r="M12" s="23">
         <v>5</v>
       </c>
-      <c r="N12" s="36" t="s">
+      <c r="N12" s="24" t="s">
         <v>30</v>
       </c>
       <c r="O12" s="3"/>
-      <c r="P12" s="2" t="str">
+      <c r="P12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="34">
-        <v>0</v>
-      </c>
-      <c r="E13" s="35">
-        <v>0</v>
-      </c>
-      <c r="F13" s="35">
-        <v>0</v>
-      </c>
-      <c r="G13" s="35">
-        <v>0</v>
-      </c>
-      <c r="H13" s="35">
-        <v>10</v>
-      </c>
-      <c r="I13" s="35">
+      <c r="A13" s="33"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="22">
+        <v>0</v>
+      </c>
+      <c r="E13" s="23">
+        <v>0</v>
+      </c>
+      <c r="F13" s="23">
+        <v>0</v>
+      </c>
+      <c r="G13" s="23">
+        <v>0</v>
+      </c>
+      <c r="H13" s="23">
+        <v>10</v>
+      </c>
+      <c r="I13" s="23">
         <v>15</v>
       </c>
-      <c r="J13" s="35">
-        <v>0</v>
-      </c>
-      <c r="K13" s="35">
-        <v>1</v>
-      </c>
-      <c r="L13" s="35">
+      <c r="J13" s="23">
+        <v>0</v>
+      </c>
+      <c r="K13" s="23">
+        <v>1</v>
+      </c>
+      <c r="L13" s="23">
         <v>5</v>
       </c>
-      <c r="M13" s="35">
+      <c r="M13" s="23">
         <v>5</v>
       </c>
-      <c r="N13" s="36" t="s">
+      <c r="N13" s="24" t="s">
         <v>14</v>
       </c>
       <c r="O13" s="3"/>
-      <c r="P13" s="2" t="str">
+      <c r="P13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="34">
+      <c r="A14" s="33"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="22">
         <v>-1</v>
       </c>
-      <c r="E14" s="35">
-        <v>0</v>
-      </c>
-      <c r="F14" s="35">
-        <v>0</v>
-      </c>
-      <c r="G14" s="35">
-        <v>0</v>
-      </c>
-      <c r="H14" s="35">
-        <v>10</v>
-      </c>
-      <c r="I14" s="35">
+      <c r="E14" s="23">
+        <v>0</v>
+      </c>
+      <c r="F14" s="23">
+        <v>0</v>
+      </c>
+      <c r="G14" s="23">
+        <v>0</v>
+      </c>
+      <c r="H14" s="23">
+        <v>10</v>
+      </c>
+      <c r="I14" s="23">
         <v>15</v>
       </c>
-      <c r="J14" s="35">
-        <v>0</v>
-      </c>
-      <c r="K14" s="35">
-        <v>1</v>
-      </c>
-      <c r="L14" s="35">
+      <c r="J14" s="23">
+        <v>0</v>
+      </c>
+      <c r="K14" s="23">
+        <v>1</v>
+      </c>
+      <c r="L14" s="23">
         <v>5</v>
       </c>
-      <c r="M14" s="35">
+      <c r="M14" s="23">
         <v>5</v>
       </c>
-      <c r="N14" s="36" t="s">
+      <c r="N14" s="24" t="s">
         <v>30</v>
       </c>
       <c r="O14" s="3"/>
-      <c r="P14" s="2" t="str">
+      <c r="P14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="27">
-        <v>0</v>
-      </c>
-      <c r="E15" s="28">
+      <c r="A15" s="34"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
         <v>-1</v>
       </c>
-      <c r="F15" s="28">
-        <v>0</v>
-      </c>
-      <c r="G15" s="28">
-        <v>0</v>
-      </c>
-      <c r="H15" s="28">
-        <v>10</v>
-      </c>
-      <c r="I15" s="28">
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0</v>
+      </c>
+      <c r="H15" s="16">
+        <v>10</v>
+      </c>
+      <c r="I15" s="16">
         <v>15</v>
       </c>
-      <c r="J15" s="28">
-        <v>0</v>
-      </c>
-      <c r="K15" s="28">
-        <v>1</v>
-      </c>
-      <c r="L15" s="28">
+      <c r="J15" s="16">
+        <v>0</v>
+      </c>
+      <c r="K15" s="16">
+        <v>1</v>
+      </c>
+      <c r="L15" s="16">
         <v>5</v>
       </c>
-      <c r="M15" s="28">
+      <c r="M15" s="16">
         <v>5</v>
       </c>
-      <c r="N15" s="29" t="s">
+      <c r="N15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="O15" s="8"/>
-      <c r="P15" s="2" t="str">
+      <c r="O15" s="3"/>
+      <c r="P15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="32">
         <v>1.3</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="33">
-        <v>20</v>
-      </c>
-      <c r="E16" s="19">
-        <v>20</v>
-      </c>
-      <c r="F16" s="19">
-        <v>0</v>
-      </c>
-      <c r="G16" s="19">
-        <v>0</v>
-      </c>
-      <c r="H16" s="19">
-        <v>20</v>
-      </c>
-      <c r="I16" s="19">
-        <v>20</v>
-      </c>
-      <c r="J16" s="19">
-        <v>0</v>
-      </c>
-      <c r="K16" s="19">
-        <v>1</v>
-      </c>
-      <c r="L16" s="19">
-        <v>10</v>
-      </c>
-      <c r="M16" s="19">
-        <v>10</v>
-      </c>
-      <c r="N16" s="26" t="s">
+      <c r="C16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="21">
+        <v>20</v>
+      </c>
+      <c r="E16" s="10">
+        <v>20</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
+        <v>20</v>
+      </c>
+      <c r="I16" s="10">
+        <v>20</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0</v>
+      </c>
+      <c r="K16" s="10">
+        <v>1</v>
+      </c>
+      <c r="L16" s="10">
+        <v>10</v>
+      </c>
+      <c r="M16" s="10">
+        <v>10</v>
+      </c>
+      <c r="N16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2" t="str">
+      <c r="O16" s="3"/>
+      <c r="P16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="34">
-        <v>20</v>
-      </c>
-      <c r="E17" s="35">
-        <v>20</v>
-      </c>
-      <c r="F17" s="35">
-        <v>0</v>
-      </c>
-      <c r="G17" s="35">
-        <v>0</v>
-      </c>
-      <c r="H17" s="35">
+      <c r="A17" s="33"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="22">
+        <v>20</v>
+      </c>
+      <c r="E17" s="23">
+        <v>20</v>
+      </c>
+      <c r="F17" s="23">
+        <v>0</v>
+      </c>
+      <c r="G17" s="23">
+        <v>0</v>
+      </c>
+      <c r="H17" s="23">
         <v>21</v>
       </c>
-      <c r="I17" s="35">
-        <v>20</v>
-      </c>
-      <c r="J17" s="35">
-        <v>0</v>
-      </c>
-      <c r="K17" s="35">
-        <v>1</v>
-      </c>
-      <c r="L17" s="35">
-        <v>10</v>
-      </c>
-      <c r="M17" s="35">
-        <v>10</v>
-      </c>
-      <c r="N17" s="36" t="s">
+      <c r="I17" s="23">
+        <v>20</v>
+      </c>
+      <c r="J17" s="23">
+        <v>0</v>
+      </c>
+      <c r="K17" s="23">
+        <v>1</v>
+      </c>
+      <c r="L17" s="23">
+        <v>10</v>
+      </c>
+      <c r="M17" s="23">
+        <v>10</v>
+      </c>
+      <c r="N17" s="24" t="s">
         <v>34</v>
       </c>
       <c r="O17" s="3"/>
-      <c r="P17" s="2" t="str">
+      <c r="P17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="34">
-        <v>20</v>
-      </c>
-      <c r="E18" s="35">
-        <v>20</v>
-      </c>
-      <c r="F18" s="35">
-        <v>0</v>
-      </c>
-      <c r="G18" s="35">
-        <v>0</v>
-      </c>
-      <c r="H18" s="35">
-        <v>20</v>
-      </c>
-      <c r="I18" s="35">
+      <c r="A18" s="33"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="22">
+        <v>20</v>
+      </c>
+      <c r="E18" s="23">
+        <v>20</v>
+      </c>
+      <c r="F18" s="23">
+        <v>0</v>
+      </c>
+      <c r="G18" s="23">
+        <v>0</v>
+      </c>
+      <c r="H18" s="23">
+        <v>20</v>
+      </c>
+      <c r="I18" s="23">
         <v>21</v>
       </c>
-      <c r="J18" s="35">
-        <v>0</v>
-      </c>
-      <c r="K18" s="35">
-        <v>1</v>
-      </c>
-      <c r="L18" s="19">
-        <v>10</v>
-      </c>
-      <c r="M18" s="19">
-        <v>10</v>
-      </c>
-      <c r="N18" s="36" t="s">
+      <c r="J18" s="23">
+        <v>0</v>
+      </c>
+      <c r="K18" s="23">
+        <v>1</v>
+      </c>
+      <c r="L18" s="10">
+        <v>10</v>
+      </c>
+      <c r="M18" s="10">
+        <v>10</v>
+      </c>
+      <c r="N18" s="24" t="s">
         <v>34</v>
       </c>
       <c r="O18" s="3"/>
-      <c r="P18" s="2" t="str">
+      <c r="P18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="34">
-        <v>20</v>
-      </c>
-      <c r="E19" s="35">
-        <v>20</v>
-      </c>
-      <c r="F19" s="35">
-        <v>0</v>
-      </c>
-      <c r="G19" s="35">
-        <v>0</v>
-      </c>
-      <c r="H19" s="35">
+      <c r="A19" s="33"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="22">
+        <v>20</v>
+      </c>
+      <c r="E19" s="23">
+        <v>20</v>
+      </c>
+      <c r="F19" s="23">
+        <v>0</v>
+      </c>
+      <c r="G19" s="23">
+        <v>0</v>
+      </c>
+      <c r="H19" s="23">
         <v>21</v>
       </c>
-      <c r="I19" s="35">
+      <c r="I19" s="23">
         <v>21</v>
       </c>
-      <c r="J19" s="35">
-        <v>0</v>
-      </c>
-      <c r="K19" s="35">
-        <v>1</v>
-      </c>
-      <c r="L19" s="35">
-        <v>10</v>
-      </c>
-      <c r="M19" s="35">
-        <v>10</v>
-      </c>
-      <c r="N19" s="36" t="s">
+      <c r="J19" s="23">
+        <v>0</v>
+      </c>
+      <c r="K19" s="23">
+        <v>1</v>
+      </c>
+      <c r="L19" s="23">
+        <v>10</v>
+      </c>
+      <c r="M19" s="23">
+        <v>10</v>
+      </c>
+      <c r="N19" s="24" t="s">
         <v>34</v>
       </c>
       <c r="O19" s="3"/>
-      <c r="P19" s="2" t="str">
+      <c r="P19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="34">
-        <v>20</v>
-      </c>
-      <c r="E20" s="35">
-        <v>20</v>
-      </c>
-      <c r="F20" s="35">
-        <v>0</v>
-      </c>
-      <c r="G20" s="35">
-        <v>0</v>
-      </c>
-      <c r="H20" s="35">
-        <v>0</v>
-      </c>
-      <c r="I20" s="35">
-        <v>0</v>
-      </c>
-      <c r="J20" s="35">
-        <v>0</v>
-      </c>
-      <c r="K20" s="35">
-        <v>1</v>
-      </c>
-      <c r="L20" s="19">
-        <v>10</v>
-      </c>
-      <c r="M20" s="19">
-        <v>10</v>
-      </c>
-      <c r="N20" s="36" t="s">
+      <c r="A20" s="33"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="22">
+        <v>20</v>
+      </c>
+      <c r="E20" s="23">
+        <v>20</v>
+      </c>
+      <c r="F20" s="23">
+        <v>0</v>
+      </c>
+      <c r="G20" s="23">
+        <v>0</v>
+      </c>
+      <c r="H20" s="23">
+        <v>0</v>
+      </c>
+      <c r="I20" s="23">
+        <v>0</v>
+      </c>
+      <c r="J20" s="23">
+        <v>0</v>
+      </c>
+      <c r="K20" s="23">
+        <v>1</v>
+      </c>
+      <c r="L20" s="10">
+        <v>10</v>
+      </c>
+      <c r="M20" s="10">
+        <v>10</v>
+      </c>
+      <c r="N20" s="24" t="s">
         <v>14</v>
       </c>
       <c r="O20" s="3"/>
-      <c r="P20" s="2" t="str">
+      <c r="P20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="34">
-        <v>20</v>
-      </c>
-      <c r="E21" s="35">
-        <v>20</v>
-      </c>
-      <c r="F21" s="35">
-        <v>0</v>
-      </c>
-      <c r="G21" s="35">
-        <v>0</v>
-      </c>
-      <c r="H21" s="35">
+      <c r="A21" s="33"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="22">
+        <v>20</v>
+      </c>
+      <c r="E21" s="23">
+        <v>20</v>
+      </c>
+      <c r="F21" s="23">
+        <v>0</v>
+      </c>
+      <c r="G21" s="23">
+        <v>0</v>
+      </c>
+      <c r="H21" s="23">
         <v>-1</v>
       </c>
-      <c r="I21" s="35">
-        <v>0</v>
-      </c>
-      <c r="J21" s="35">
-        <v>0</v>
-      </c>
-      <c r="K21" s="35">
-        <v>1</v>
-      </c>
-      <c r="L21" s="35">
-        <v>10</v>
-      </c>
-      <c r="M21" s="35">
-        <v>10</v>
-      </c>
-      <c r="N21" s="36" t="s">
+      <c r="I21" s="23">
+        <v>0</v>
+      </c>
+      <c r="J21" s="23">
+        <v>0</v>
+      </c>
+      <c r="K21" s="23">
+        <v>1</v>
+      </c>
+      <c r="L21" s="23">
+        <v>10</v>
+      </c>
+      <c r="M21" s="23">
+        <v>10</v>
+      </c>
+      <c r="N21" s="24" t="s">
         <v>34</v>
       </c>
       <c r="O21" s="3"/>
-      <c r="P21" s="2" t="str">
+      <c r="P21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="34">
-        <v>20</v>
-      </c>
-      <c r="E22" s="35">
-        <v>20</v>
-      </c>
-      <c r="F22" s="35">
-        <v>0</v>
-      </c>
-      <c r="G22" s="35">
-        <v>0</v>
-      </c>
-      <c r="H22" s="35">
-        <v>0</v>
-      </c>
-      <c r="I22" s="35">
+      <c r="A22" s="33"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="22">
+        <v>20</v>
+      </c>
+      <c r="E22" s="23">
+        <v>20</v>
+      </c>
+      <c r="F22" s="23">
+        <v>0</v>
+      </c>
+      <c r="G22" s="23">
+        <v>0</v>
+      </c>
+      <c r="H22" s="23">
+        <v>0</v>
+      </c>
+      <c r="I22" s="23">
         <v>-1</v>
       </c>
-      <c r="J22" s="35">
-        <v>0</v>
-      </c>
-      <c r="K22" s="35">
-        <v>1</v>
-      </c>
-      <c r="L22" s="19">
-        <v>10</v>
-      </c>
-      <c r="M22" s="19">
-        <v>10</v>
-      </c>
-      <c r="N22" s="36" t="s">
+      <c r="J22" s="23">
+        <v>0</v>
+      </c>
+      <c r="K22" s="23">
+        <v>1</v>
+      </c>
+      <c r="L22" s="10">
+        <v>10</v>
+      </c>
+      <c r="M22" s="10">
+        <v>10</v>
+      </c>
+      <c r="N22" s="24" t="s">
         <v>34</v>
       </c>
       <c r="O22" s="3"/>
-      <c r="P22" s="2" t="str">
+      <c r="P22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="34">
-        <v>20</v>
-      </c>
-      <c r="E23" s="35">
-        <v>20</v>
-      </c>
-      <c r="F23" s="35">
-        <v>0</v>
-      </c>
-      <c r="G23" s="35">
-        <v>0</v>
-      </c>
-      <c r="H23" s="35">
+      <c r="A23" s="33"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="22">
+        <v>20</v>
+      </c>
+      <c r="E23" s="23">
+        <v>20</v>
+      </c>
+      <c r="F23" s="23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="23">
+        <v>0</v>
+      </c>
+      <c r="H23" s="23">
         <v>-1</v>
       </c>
-      <c r="I23" s="35">
+      <c r="I23" s="23">
         <v>-1</v>
       </c>
-      <c r="J23" s="35">
-        <v>0</v>
-      </c>
-      <c r="K23" s="35">
-        <v>1</v>
-      </c>
-      <c r="L23" s="35">
-        <v>10</v>
-      </c>
-      <c r="M23" s="35">
-        <v>10</v>
-      </c>
-      <c r="N23" s="36" t="s">
+      <c r="J23" s="23">
+        <v>0</v>
+      </c>
+      <c r="K23" s="23">
+        <v>1</v>
+      </c>
+      <c r="L23" s="23">
+        <v>10</v>
+      </c>
+      <c r="M23" s="23">
+        <v>10</v>
+      </c>
+      <c r="N23" s="24" t="s">
         <v>34</v>
       </c>
       <c r="O23" s="3"/>
-      <c r="P23" s="2" t="str">
+      <c r="P23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="17" t="s">
+      <c r="A24" s="33"/>
+      <c r="B24" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="34">
-        <v>20</v>
-      </c>
-      <c r="E24" s="35">
-        <v>20</v>
-      </c>
-      <c r="F24" s="35">
-        <v>0</v>
-      </c>
-      <c r="G24" s="35">
-        <v>0</v>
-      </c>
-      <c r="H24" s="35">
-        <v>10</v>
-      </c>
-      <c r="I24" s="35">
-        <v>10</v>
-      </c>
-      <c r="J24" s="35">
-        <v>0</v>
-      </c>
-      <c r="K24" s="35">
-        <v>1</v>
-      </c>
-      <c r="L24" s="19">
-        <v>20</v>
-      </c>
-      <c r="M24" s="19">
-        <v>20</v>
-      </c>
-      <c r="N24" s="36" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" s="22">
+        <v>20</v>
+      </c>
+      <c r="E24" s="23">
+        <v>20</v>
+      </c>
+      <c r="F24" s="23">
+        <v>0</v>
+      </c>
+      <c r="G24" s="23">
+        <v>0</v>
+      </c>
+      <c r="H24" s="23">
+        <v>10</v>
+      </c>
+      <c r="I24" s="23">
+        <v>10</v>
+      </c>
+      <c r="J24" s="23">
+        <v>0</v>
+      </c>
+      <c r="K24" s="23">
+        <v>1</v>
+      </c>
+      <c r="L24" s="10">
+        <v>20</v>
+      </c>
+      <c r="M24" s="10">
+        <v>20</v>
+      </c>
+      <c r="N24" s="24" t="s">
         <v>15</v>
       </c>
       <c r="O24" s="3"/>
-      <c r="P24" s="2" t="str">
+      <c r="P24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="34">
-        <v>20</v>
-      </c>
-      <c r="E25" s="35">
-        <v>20</v>
-      </c>
-      <c r="F25" s="35">
-        <v>0</v>
-      </c>
-      <c r="G25" s="35">
-        <v>0</v>
-      </c>
-      <c r="H25" s="35">
-        <v>10</v>
-      </c>
-      <c r="I25" s="35">
-        <v>10</v>
-      </c>
-      <c r="J25" s="35">
-        <v>0</v>
-      </c>
-      <c r="K25" s="35">
-        <v>1</v>
-      </c>
-      <c r="L25" s="35">
+      <c r="A25" s="33"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="22">
+        <v>20</v>
+      </c>
+      <c r="E25" s="23">
+        <v>20</v>
+      </c>
+      <c r="F25" s="23">
+        <v>0</v>
+      </c>
+      <c r="G25" s="23">
+        <v>0</v>
+      </c>
+      <c r="H25" s="23">
+        <v>10</v>
+      </c>
+      <c r="I25" s="23">
+        <v>10</v>
+      </c>
+      <c r="J25" s="23">
+        <v>0</v>
+      </c>
+      <c r="K25" s="23">
+        <v>1</v>
+      </c>
+      <c r="L25" s="23">
         <v>21</v>
       </c>
-      <c r="M25" s="35">
-        <v>20</v>
-      </c>
-      <c r="N25" s="36" t="s">
+      <c r="M25" s="23">
+        <v>20</v>
+      </c>
+      <c r="N25" s="24" t="s">
         <v>35</v>
       </c>
       <c r="O25" s="3"/>
-      <c r="P25" s="2" t="str">
+      <c r="P25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="34">
-        <v>20</v>
-      </c>
-      <c r="E26" s="35">
-        <v>20</v>
-      </c>
-      <c r="F26" s="35">
-        <v>0</v>
-      </c>
-      <c r="G26" s="35">
-        <v>0</v>
-      </c>
-      <c r="H26" s="35">
-        <v>10</v>
-      </c>
-      <c r="I26" s="35">
-        <v>10</v>
-      </c>
-      <c r="J26" s="35">
-        <v>0</v>
-      </c>
-      <c r="K26" s="35">
-        <v>1</v>
-      </c>
-      <c r="L26" s="35">
-        <v>20</v>
-      </c>
-      <c r="M26" s="35">
+      <c r="A26" s="33"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="22">
+        <v>20</v>
+      </c>
+      <c r="E26" s="23">
+        <v>20</v>
+      </c>
+      <c r="F26" s="23">
+        <v>0</v>
+      </c>
+      <c r="G26" s="23">
+        <v>0</v>
+      </c>
+      <c r="H26" s="23">
+        <v>10</v>
+      </c>
+      <c r="I26" s="23">
+        <v>10</v>
+      </c>
+      <c r="J26" s="23">
+        <v>0</v>
+      </c>
+      <c r="K26" s="23">
+        <v>1</v>
+      </c>
+      <c r="L26" s="23">
+        <v>20</v>
+      </c>
+      <c r="M26" s="23">
         <v>21</v>
       </c>
-      <c r="N26" s="36" t="s">
+      <c r="N26" s="24" t="s">
         <v>35</v>
       </c>
       <c r="O26" s="3"/>
-      <c r="P26" s="2" t="str">
+      <c r="P26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="34">
-        <v>20</v>
-      </c>
-      <c r="E27" s="35">
-        <v>20</v>
-      </c>
-      <c r="F27" s="35">
-        <v>0</v>
-      </c>
-      <c r="G27" s="35">
-        <v>0</v>
-      </c>
-      <c r="H27" s="35">
-        <v>10</v>
-      </c>
-      <c r="I27" s="35">
-        <v>10</v>
-      </c>
-      <c r="J27" s="35">
-        <v>0</v>
-      </c>
-      <c r="K27" s="35">
-        <v>1</v>
-      </c>
-      <c r="L27" s="35">
+      <c r="A27" s="33"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="22">
+        <v>20</v>
+      </c>
+      <c r="E27" s="23">
+        <v>20</v>
+      </c>
+      <c r="F27" s="23">
+        <v>0</v>
+      </c>
+      <c r="G27" s="23">
+        <v>0</v>
+      </c>
+      <c r="H27" s="23">
+        <v>10</v>
+      </c>
+      <c r="I27" s="23">
+        <v>10</v>
+      </c>
+      <c r="J27" s="23">
+        <v>0</v>
+      </c>
+      <c r="K27" s="23">
+        <v>1</v>
+      </c>
+      <c r="L27" s="23">
         <v>21</v>
       </c>
-      <c r="M27" s="35">
+      <c r="M27" s="23">
         <v>21</v>
       </c>
-      <c r="N27" s="36" t="s">
+      <c r="N27" s="24" t="s">
         <v>35</v>
       </c>
       <c r="O27" s="3"/>
-      <c r="P27" s="2" t="str">
+      <c r="P27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="34">
-        <v>20</v>
-      </c>
-      <c r="E28" s="35">
-        <v>20</v>
-      </c>
-      <c r="F28" s="35">
-        <v>0</v>
-      </c>
-      <c r="G28" s="35">
-        <v>0</v>
-      </c>
-      <c r="H28" s="35">
-        <v>10</v>
-      </c>
-      <c r="I28" s="35">
-        <v>10</v>
-      </c>
-      <c r="J28" s="35">
-        <v>0</v>
-      </c>
-      <c r="K28" s="35">
-        <v>1</v>
-      </c>
-      <c r="L28" s="35">
-        <v>0</v>
-      </c>
-      <c r="M28" s="35">
-        <v>0</v>
-      </c>
-      <c r="N28" s="36" t="s">
+      <c r="A28" s="33"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="22">
+        <v>20</v>
+      </c>
+      <c r="E28" s="23">
+        <v>20</v>
+      </c>
+      <c r="F28" s="23">
+        <v>0</v>
+      </c>
+      <c r="G28" s="23">
+        <v>0</v>
+      </c>
+      <c r="H28" s="23">
+        <v>10</v>
+      </c>
+      <c r="I28" s="23">
+        <v>10</v>
+      </c>
+      <c r="J28" s="23">
+        <v>0</v>
+      </c>
+      <c r="K28" s="23">
+        <v>1</v>
+      </c>
+      <c r="L28" s="23">
+        <v>0</v>
+      </c>
+      <c r="M28" s="23">
+        <v>0</v>
+      </c>
+      <c r="N28" s="24" t="s">
         <v>15</v>
       </c>
       <c r="O28" s="3"/>
-      <c r="P28" s="2" t="str">
+      <c r="P28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="34">
-        <v>20</v>
-      </c>
-      <c r="E29" s="35">
-        <v>20</v>
-      </c>
-      <c r="F29" s="35">
-        <v>0</v>
-      </c>
-      <c r="G29" s="35">
-        <v>0</v>
-      </c>
-      <c r="H29" s="35">
-        <v>10</v>
-      </c>
-      <c r="I29" s="35">
-        <v>10</v>
-      </c>
-      <c r="J29" s="35">
-        <v>0</v>
-      </c>
-      <c r="K29" s="35">
-        <v>1</v>
-      </c>
-      <c r="L29" s="35">
+      <c r="A29" s="33"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="22">
+        <v>20</v>
+      </c>
+      <c r="E29" s="23">
+        <v>20</v>
+      </c>
+      <c r="F29" s="23">
+        <v>0</v>
+      </c>
+      <c r="G29" s="23">
+        <v>0</v>
+      </c>
+      <c r="H29" s="23">
+        <v>10</v>
+      </c>
+      <c r="I29" s="23">
+        <v>10</v>
+      </c>
+      <c r="J29" s="23">
+        <v>0</v>
+      </c>
+      <c r="K29" s="23">
+        <v>1</v>
+      </c>
+      <c r="L29" s="23">
         <v>-1</v>
       </c>
-      <c r="M29" s="35">
-        <v>0</v>
-      </c>
-      <c r="N29" s="36" t="s">
+      <c r="M29" s="23">
+        <v>0</v>
+      </c>
+      <c r="N29" s="24" t="s">
         <v>35</v>
       </c>
       <c r="O29" s="3"/>
-      <c r="P29" s="2" t="str">
+      <c r="P29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="34">
-        <v>20</v>
-      </c>
-      <c r="E30" s="35">
-        <v>20</v>
-      </c>
-      <c r="F30" s="35">
-        <v>0</v>
-      </c>
-      <c r="G30" s="35">
-        <v>0</v>
-      </c>
-      <c r="H30" s="35">
-        <v>10</v>
-      </c>
-      <c r="I30" s="35">
-        <v>10</v>
-      </c>
-      <c r="J30" s="35">
-        <v>0</v>
-      </c>
-      <c r="K30" s="35">
-        <v>1</v>
-      </c>
-      <c r="L30" s="35">
-        <v>0</v>
-      </c>
-      <c r="M30" s="35">
+      <c r="A30" s="33"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="22">
+        <v>20</v>
+      </c>
+      <c r="E30" s="23">
+        <v>20</v>
+      </c>
+      <c r="F30" s="23">
+        <v>0</v>
+      </c>
+      <c r="G30" s="23">
+        <v>0</v>
+      </c>
+      <c r="H30" s="23">
+        <v>10</v>
+      </c>
+      <c r="I30" s="23">
+        <v>10</v>
+      </c>
+      <c r="J30" s="23">
+        <v>0</v>
+      </c>
+      <c r="K30" s="23">
+        <v>1</v>
+      </c>
+      <c r="L30" s="23">
+        <v>0</v>
+      </c>
+      <c r="M30" s="23">
         <v>-1</v>
       </c>
-      <c r="N30" s="36" t="s">
+      <c r="N30" s="24" t="s">
         <v>35</v>
       </c>
       <c r="O30" s="3"/>
-      <c r="P30" s="2" t="str">
+      <c r="P30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="27">
-        <v>20</v>
-      </c>
-      <c r="E31" s="28">
-        <v>20</v>
-      </c>
-      <c r="F31" s="28">
-        <v>0</v>
-      </c>
-      <c r="G31" s="28">
-        <v>0</v>
-      </c>
-      <c r="H31" s="28">
-        <v>10</v>
-      </c>
-      <c r="I31" s="28">
-        <v>10</v>
-      </c>
-      <c r="J31" s="28">
-        <v>0</v>
-      </c>
-      <c r="K31" s="28">
-        <v>1</v>
-      </c>
-      <c r="L31" s="28">
+      <c r="A31" s="34"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="15">
+        <v>20</v>
+      </c>
+      <c r="E31" s="16">
+        <v>20</v>
+      </c>
+      <c r="F31" s="16">
+        <v>0</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0</v>
+      </c>
+      <c r="H31" s="16">
+        <v>10</v>
+      </c>
+      <c r="I31" s="16">
+        <v>10</v>
+      </c>
+      <c r="J31" s="16">
+        <v>0</v>
+      </c>
+      <c r="K31" s="16">
+        <v>1</v>
+      </c>
+      <c r="L31" s="16">
         <v>-1</v>
       </c>
-      <c r="M31" s="37">
+      <c r="M31" s="25">
         <v>-1</v>
       </c>
-      <c r="N31" s="36" t="s">
+      <c r="N31" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="O31" s="8"/>
-      <c r="P31" s="2" t="str">
+      <c r="O31" s="3"/>
+      <c r="P31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="A32" s="33">
         <v>1.4</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="9">
-        <v>20</v>
-      </c>
-      <c r="E32" s="9">
-        <v>20</v>
-      </c>
-      <c r="F32" s="9">
-        <v>0</v>
-      </c>
-      <c r="G32" s="9">
-        <v>0</v>
-      </c>
-      <c r="H32" s="19">
-        <v>10</v>
-      </c>
-      <c r="I32" s="19">
+      <c r="D32" s="2">
+        <v>20</v>
+      </c>
+      <c r="E32" s="2">
+        <v>20</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10">
+        <v>10</v>
+      </c>
+      <c r="I32" s="10">
         <v>15</v>
       </c>
-      <c r="J32" s="19">
-        <v>0</v>
-      </c>
-      <c r="K32" s="19">
-        <v>1</v>
-      </c>
-      <c r="L32" s="19">
+      <c r="J32" s="10">
+        <v>0</v>
+      </c>
+      <c r="K32" s="10">
+        <v>1</v>
+      </c>
+      <c r="L32" s="10">
         <v>5</v>
       </c>
-      <c r="M32" s="19">
+      <c r="M32" s="10">
         <v>5</v>
       </c>
-      <c r="N32" s="10" t="s">
+      <c r="N32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P32" s="2" t="str">
+      <c r="O32" s="3"/>
+      <c r="P32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17" t="s">
+      <c r="A33" s="33"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="9">
-        <v>20</v>
-      </c>
-      <c r="E33" s="9">
-        <v>20</v>
-      </c>
-      <c r="F33" s="9">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9">
-        <v>0</v>
-      </c>
-      <c r="H33" s="9">
-        <v>10</v>
-      </c>
-      <c r="I33" s="9">
-        <v>10</v>
-      </c>
-      <c r="J33" s="9">
-        <v>0</v>
-      </c>
-      <c r="K33" s="9">
-        <v>1</v>
-      </c>
-      <c r="L33" s="9">
-        <v>10</v>
-      </c>
-      <c r="M33" s="9">
-        <v>10</v>
-      </c>
-      <c r="N33" s="10" t="s">
+      <c r="D33" s="2">
+        <v>20</v>
+      </c>
+      <c r="E33" s="2">
+        <v>20</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>10</v>
+      </c>
+      <c r="I33" s="2">
+        <v>10</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1</v>
+      </c>
+      <c r="L33" s="2">
+        <v>10</v>
+      </c>
+      <c r="M33" s="2">
+        <v>10</v>
+      </c>
+      <c r="N33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P33" s="2" t="str">
+      <c r="O33" s="3"/>
+      <c r="P33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+  </mergeCells>
   <conditionalFormatting sqref="P5:P33">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="PASS">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",P5)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
